--- a/ACSServer_API_Full_Priority_List_Priority_v1.xlsx
+++ b/ACSServer_API_Full_Priority_List_Priority_v1.xlsx
@@ -37,7 +37,7 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>API Description/说明222</t>
+    <t>API Description/说明333</t>
   </si>
   <si>
     <t>HTTP Method</t>
@@ -7469,14 +7469,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7629,7 +7622,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7794,12 +7787,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7813,12 +7800,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7944,28 +7925,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7974,118 +7958,115 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8444,7 +8425,7 @@
   <dimension ref="A1:I1081"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
